--- a/data/financial_statements/sofp/GE.xlsx
+++ b/data/financial_statements/sofp/GE.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -143,9 +263,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -198,12 +315,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -500,2771 +614,2837 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN41"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>24871000000</v>
+      </c>
+      <c r="C2">
         <v>18893000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>19935000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>23621000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>28067000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>30255000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>28594000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>38524000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>43849000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>86043000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>88548000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>89585000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>45699000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>76035000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>71351000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>73180000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>64632000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>61693000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>64285000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>69285000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>82663000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>78550000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>84017000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>83513000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>92442000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>98899000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>91843000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>108049000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>102456000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>136019000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>131104000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>129047000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>105530000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>137455000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>133324000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>132712000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>132536000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>130397000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>132459000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>138110000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>17976000000</v>
+      </c>
+      <c r="C3">
         <v>17197000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>16283000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>16050000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>15620000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>16331000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>16869000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>17026000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>16691000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>27712000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>26714000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>27428000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>20280000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>26726000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>30191000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>33423000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>29487000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>34447000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>35686000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>39498000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>40846000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>43361000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>39752000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>39722000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>42262000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>43351000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>43813000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>44230000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>45856000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>100965000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>98903000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>95401000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>42943000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>257111000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>261724000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>266989000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>272442000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>273447000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>276504000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>278120000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>17403000000</v>
+      </c>
+      <c r="C4">
         <v>17536000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>17553000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>16570000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>15847000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>16790000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>17016000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>16530000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>15890000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>14925000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>15251000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>15457000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>17215000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>15203000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>19971000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>19419000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>13803000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>20642000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>20473000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>20574000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>19419000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>25848000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>22843000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>22701000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>22354000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>24116000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>24723000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>23907000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>22515000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>19285000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>18704000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>17830000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>17689000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>19431000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>19706000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>18881000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>17325000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>17943000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>16762000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>16281000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>5983000000</v>
+      </c>
+      <c r="C5">
         <v>6456000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>6887000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7058000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>6814000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6429000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>6746000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>7197000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>8423000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>19901000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>22832000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>26574000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>92959000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>66234000000</v>
+      </c>
+      <c r="C6">
         <v>60082000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>60658000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>63299000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>66348000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>103587000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>102411000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>113198000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>84853000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>128680000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>130513000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>132470000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>103096000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>117964000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>121513000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>126022000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>107922000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>116782000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>120444000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>129357000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>142928000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>147759000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>146612000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>145936000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>157058000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>166366000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>160379000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>176186000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>170827000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>279101000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>275285000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>335237000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>166162000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>413997000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>414754000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>418582000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>422303000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>421787000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>425725000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>432511000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>14478000000</v>
+      </c>
+      <c r="C7">
         <v>14295000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>14790000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>15036000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15609000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>15873000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>13416000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>16296000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>16699000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>44830000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>45503000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>45979000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>45879000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>42886000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>49943000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>50265000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>43611000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>50638000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>50866000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>53650000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>53874000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>54101000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>50167000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>49016000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>50518000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>51453000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>50436000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>53786000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>54095000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>50704000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>51039000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>61219000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>48070000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>65460000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>67900000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>67743000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>68827000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>68741000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>68762000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>68411000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>36048000000</v>
+      </c>
+      <c r="C8">
         <v>33624000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>36195000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>39845000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>42209000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>42394000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>42665000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>40786000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>42549000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>47139000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>47405000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>42728000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>38632000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9">
         <v>4668000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>4672000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4634000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4661000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>6566000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>33423000000</v>
+      </c>
+      <c r="C10">
         <v>33000000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>33816000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>34337000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>35512000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>34520000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>34951000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>34715000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>35195000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>35187000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>35119000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>36979000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>37387000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>37432000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>68925000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>70247000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>46152000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>79215000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>102192000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>106129000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>104241000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>108503000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>89264000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>86828000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>86874000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>86767000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>83747000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>83102000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>83323000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>75278000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>75852000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>83137000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>66389000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>92216000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>93815000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>93917000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>91958000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>92250000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>84684000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>84555000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>11705000000</v>
+      </c>
+      <c r="C11">
         <v>11504000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>10956000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>10583000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10855000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>14466000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>14864000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>14232000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>14253000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>11367000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>10665000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>10457000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>9889000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>9570000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>11894000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>11413000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>12117000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>10354000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>10891000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>11479000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>8819000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1129000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1241000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>953000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1833000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>1463000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>2242000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>3214000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>3105000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>176000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>6183000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>275000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>3937000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>5013000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>5076000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>23008000000</v>
+      </c>
+      <c r="C12">
         <v>25387000000</v>
-      </c>
-      <c r="C12">
-        <v>25926000000</v>
       </c>
       <c r="D12">
         <v>25926000000</v>
       </c>
       <c r="E12">
+        <v>25926000000</v>
+      </c>
+      <c r="F12">
         <v>25164000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>18770000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>18771000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>18293000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>21913000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>30665000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>31069000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>32483000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>19619000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>48008000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>51783000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>48662000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>37417000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>49984000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>53323000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>51825000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>53469000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>59754000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>60338000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>59126000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>54083000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>50714000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>54791000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>64292000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>60771000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>54102000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>53874000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>106777000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>44622000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>77018000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>73921000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>70552000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>70858000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>73050000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>74502000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>78272000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>121554000000</v>
+      </c>
+      <c r="C13">
         <v>120795000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>124882000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>128662000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>132526000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>133546000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>135149000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>131965000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>171358000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>125636000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>125973000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>129551000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>162081000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>145044000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>190596000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>189062000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>203150000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>194907000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>222325000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>228753000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>226315000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>230278000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>208860000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>205709000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>208123000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>221327000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>241081000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>286009000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>322245000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>302209000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>335641000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>282394000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>488793000000.0001</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>236024000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>237115000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>233670000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>234257000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>239651000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>234816000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>238179000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>187788000000</v>
+      </c>
+      <c r="C14">
         <v>180877000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>185540000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>191961000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>198874000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>237133000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>237559000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>245164000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>256211000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>254315000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>256487000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>262021000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>265177000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>263009000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>312109000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>315082000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>311072000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>311691000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>342769000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>358109000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>369245000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>378038000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>355473000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>351643000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>365183000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>387694000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>401461000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>462193000000.0001</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>493071000000.0001</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>581310000000.0001</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>610926000000.0001</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>617631000000.0001</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>654954000000.0001</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>650021000000.0001</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>651869000000.0001</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>652252000000.0001</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>656560000000.0001</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>661438000000.0001</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>660541000000.0001</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>670690000000.0001</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>18644000000</v>
+      </c>
+      <c r="C15">
         <v>17331000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>17030000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>16206000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>16243000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>16172000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>16653000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>16090000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>16458000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>13941000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>13469000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>15212000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>17357000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>14493000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>17036000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>17059000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>13826000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>15748000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>15026000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>15060000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>15172000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>14907000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>13283000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>13698000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>14435000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>13067000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>13115000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>13150000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>13680000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>11762000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>12017000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>14392000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>12067000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>16758000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>17561000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>17206000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>16471000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>16449000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>16237000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>16130000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16">
         <v>94000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1054000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1053000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1060000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1052000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>2093000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>2090000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>2109000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>2107000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>2062000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>2105000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>2153000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>2167000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>2324000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>2322000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>2315000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>2317000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>2209000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>2208000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>2206000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>2220000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>1922000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1939000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1971000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>18118000000</v>
+      </c>
+      <c r="C17">
         <v>16445000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>16360000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>16206000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>17372000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>17201000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>17993000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>18371000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>19523000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>19927000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>19818000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>18389000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>19041000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>20901000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>20225000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>18983000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>20579000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>20701000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>21950000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>22117000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>16970000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>17162000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>16583000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>16760000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>15760000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>16218000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>16342000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>15776000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>11247000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>11442000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>11498000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>12537000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>12384000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>12616000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>12804000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>13125000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>12122000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>12435000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>11337000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>3757000000</v>
+      </c>
+      <c r="C18">
         <v>4285000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>4947000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>4985000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>4361000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>5459000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>4293000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>4468000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>4713000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>5977000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>9059000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>18122000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>23641000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>17046000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>15620000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>15953000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>12776000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>15206000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>14419000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>19371000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>24036000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>28127000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>30044000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>28324000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>30714000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>31571000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>31927000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>51082000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>49860000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>46495000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>67822000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>69211000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>70425000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>69916000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>73531000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>76121000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>77890000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>80496000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>77184000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>83127000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
         <v>16360000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>17372000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>16909000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>17993000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>18371000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>16429000000</v>
+      </c>
+      <c r="C20">
         <v>16597000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>15547000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>15948000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>13977000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>14349000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>13569000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>14139000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>15071000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>16243000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>16535000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>16290000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>19479000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>13675000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>16720000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>17881000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>14866000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>17930000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>15168000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>16092000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>16919000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>17420000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>16755000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>17097000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>17564000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>20230000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>20420000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>21552000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>23597000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>12624000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>12502000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>12393000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>14323000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>12695000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>12626000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>13622000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>13381000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>14669000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>14393000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>15943000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>56947000000</v>
+      </c>
+      <c r="C21">
         <v>54657000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>53883000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>53344000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>51953000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>57676000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>56639000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>57681000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>54613000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>55684000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>58990000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>69442000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>78865000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>64255000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>70277000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>71212000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>60451000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>70517000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>66367000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>73533000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>79296000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>79517000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>79334000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>77811000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>81580000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>82690000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>83785000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>104279000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>105080000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>84452000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>106105000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>109809000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>111669000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>113962000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>118542000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>121959000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>123087000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>125658000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>122188000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>128508000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>28593000000</v>
+      </c>
+      <c r="C22">
         <v>26121000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>27571000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>28649000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>30824000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>57429000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>59231000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>66890000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>70189000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>73034000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>72423000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>66388000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>67241000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>74701000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>88735000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>90223000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>88949000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>97060000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>99832000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>105134000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>108575000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>107557000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>103676000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>99674000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>105080000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>115686000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>122504000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>132187000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>144659000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>180011000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>185351000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>190420000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>186596000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>213179000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>216845000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>220992000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>221665000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>226872000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>231285000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>234299000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>1842000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1916000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1953000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1989000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1839000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1779000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1748000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1801000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>2006000000</v>
+      </c>
+      <c r="C24">
         <v>1842000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1916000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1953000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1989000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1839000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1779000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1748000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1801000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-11367000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-10665000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-10457000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1555000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>67000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>2901000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>1612000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>96000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>381000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q25">
         <v>416000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>386000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>3376000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>3549000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>3391000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>3441000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>3193000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>3054000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>3025000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>3051000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>3070000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>3036000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>2972000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>98000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>61522000000</v>
+      </c>
+      <c r="C26">
         <v>64403000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>66226000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>66739000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>71608000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>81119000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>84845000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>83487000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>86649000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>90515000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>89586000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>89193000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>87451000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>91345000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>92511000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>91764000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>90912000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>93889000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>99492000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>100598000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>103778000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>92480000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>92576000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>93189000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>93851000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>92939000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>91037000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>92992000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>93734000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>153085000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>152143000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>195130000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>91525000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>176605000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>175217000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>169635000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>171092000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>177463000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>175809000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>176457000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>93258000000</v>
+      </c>
+      <c r="C27">
         <v>93469000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>95713000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>98334000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>105308000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>140496000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>145872000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>152329000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>164525000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>163837000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>162244000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>155720000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>156450000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>169602000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>185702000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>188226000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>199142000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>193337000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>204649000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>211385000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>216450000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>204468000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>200356000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>197658000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>206114000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>221458000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>230995000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>265159000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>287852000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>376864000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>386542000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>390524000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>406452000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>392548000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>393260000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>392274000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>396690000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>406735000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>409542000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>413132000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>150206000000</v>
+      </c>
+      <c r="C28">
         <v>148124000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>149597000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>151678000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>157262000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>198172000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>202512000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>210011000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>219138000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>219522000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>221233000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>225162000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>235316000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>233856000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>255980000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>259436000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>259591000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>263854000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>271015000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>284916000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>295747000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>283985000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>279691000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>275470000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>287692000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>304150000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>314778000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>369438000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>392933000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>461317000000.0001</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>492647000000.0001</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>500333000000.0001</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>518121000000.0001</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>506510000000.0001</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>511802000000.0001</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>514233000000.0001</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>519777000000.0001</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>532393000000.0001</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>531730000000.0001</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>541640000000.0001</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>6000000</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C29">
         <v>6000000</v>
@@ -3347,13 +3527,13 @@
       <c r="AC29">
         <v>6000000</v>
       </c>
+      <c r="AD29">
+        <v>6000000</v>
+      </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>15000000</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C30">
         <v>15000000</v>
@@ -3368,7 +3548,7 @@
         <v>15000000</v>
       </c>
       <c r="G30">
-        <v>702000000</v>
+        <v>15000000</v>
       </c>
       <c r="H30">
         <v>702000000</v>
@@ -3469,870 +3649,879 @@
       <c r="AN30">
         <v>702000000</v>
       </c>
+      <c r="AO30">
+        <v>702000000</v>
+      </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>82655000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>82981000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>83927000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>85110000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>89098000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>87993000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>89276000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>92247000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>89905000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>91188000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>93615000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>87732000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>87213000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>96773000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>96921000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>93109000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>90867000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>114913000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>115477000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>117245000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>136696000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>137044000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>137983000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>139532000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>138236000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>138310000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>137750000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>140020000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>135932000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>135755000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>139441000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>155333000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>152497000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>151174000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>149840000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>149051000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>148067000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>146800000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>145608000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>81049000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>80883000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>80673000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>81093000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>81314000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>81425000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>81548000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>81961000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>82125000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>82320000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>82516000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>82797000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>82940000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>83137000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>83328000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>83925000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>84202000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>84471000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>84697000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>84902000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>85199000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>85617000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>84833000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>83038000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>79849000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>76124000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>69042000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>63539000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>41207000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>41551000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>42094000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>42593000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>43005000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>43234000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>43401000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>42561000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>41025000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>39502000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>35993000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>34254000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>34382000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>34391000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>34691000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>34751000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>34032000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>34042000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>34307000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>34279000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>34292000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>34296000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>34405000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>34315000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>34324000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>34345000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>35504000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>37311000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>37352000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>37339000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>37384000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>38423000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>37468000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>37448000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>37224000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>37209000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>36995000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>37377000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>37613000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>32760000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>32803000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>32875000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>32889000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>32914000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>32529000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>32544000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>32494000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>32811000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>32972000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>33061000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>1216000000</v>
+      </c>
+      <c r="C34">
         <v>32748000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>35936000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>40279000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>41607000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>38956000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>35042000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>35147000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>37068000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>34787000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>35247000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>36853000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>29855000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>29148000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>56122000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>55640000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>51476000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>47831000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>71749000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>73187000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>73494000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>94047000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>75778000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>76168000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>77484000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>83539000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>86678000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>92749000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>100131000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>119992000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>118279000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>117298000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>136832000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>143511000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>140067000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>138019000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>136783000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>129045000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>128811000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>129050000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>37582000000</v>
+      </c>
+      <c r="C35">
         <v>32753000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>35942000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>40283000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>41612000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>38961000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>35047000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>35153000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>37073000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>34793000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>35254000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>36859000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>29861000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>29153000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>56129000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>55646000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>51481000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>47837000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>71754000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>73193000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>73498000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>94052000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>75783000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>76173000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>77491000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>83544000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>86684000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>92755000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>100138000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>119993000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>118279000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>117298000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>136833000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>143511000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>140067000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>138019000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>136783000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>129045000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>128811000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>129050000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>187788000000</v>
+      </c>
+      <c r="C36">
         <v>180877000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>185540000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>191961000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>198874000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>237133000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>237559000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>245164000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>256211000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>254315000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>256487000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>262021000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>265177000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>263009000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>312109000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>315082000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>311072000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>311691000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>342769000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>358109000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>369245000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>378038000000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>355473000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>351643000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>365183000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>387694000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>401461000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>462193000000.0001</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>493071000000.0001</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>581310000000.0001</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>610926000000.0001</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>617631000000.0001</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>654954000000.0001</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>650021000000.0001</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>651869000000.0001</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>652252000000.0001</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>656560000000.0001</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>661438000000.0001</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>660541000000.0001</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>670690000000.0001</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
         <v>1092668000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1096553000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1101000000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1099027000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1098137000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1097663000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>1097330000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>1095687000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>1094984000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>1094161000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>1093386000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>1092304000</v>
-      </c>
-      <c r="N37">
-        <v>1090884000</v>
       </c>
       <c r="O37">
         <v>1090884000</v>
       </c>
       <c r="P37">
+        <v>1090884000</v>
+      </c>
+      <c r="Q37">
         <v>1090101000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>1087778000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>1087264000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>1086385000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>1085667000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>1085071000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>1084011000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>1082243000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>1085495000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>1092827000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>1105799000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>1120154000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>1149457000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>1172411000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>1263655000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>1262054000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>1259491000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>1257172000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>1255275000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>1254238000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>1253471000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>1257610000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>1264671000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>1273000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>1292515000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38">
         <v>5840000</v>
-      </c>
-      <c r="C38">
-        <v>5940000</v>
       </c>
       <c r="D38">
         <v>5940000</v>
@@ -4344,16 +4533,16 @@
         <v>5940000</v>
       </c>
       <c r="G38">
-        <v>742500</v>
+        <v>5940000</v>
       </c>
       <c r="H38">
         <v>742500</v>
       </c>
       <c r="I38">
+        <v>742500</v>
+      </c>
+      <c r="J38">
         <v>5940000</v>
-      </c>
-      <c r="J38">
-        <v>742500</v>
       </c>
       <c r="K38">
         <v>742500</v>
@@ -4389,7 +4578,7 @@
         <v>742500</v>
       </c>
       <c r="V38">
-        <v>743000</v>
+        <v>742500</v>
       </c>
       <c r="W38">
         <v>743000</v>
@@ -4413,375 +4602,387 @@
         <v>743000</v>
       </c>
       <c r="AD38">
+        <v>743000</v>
+      </c>
+      <c r="AE38">
         <v>6300</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>6300</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+    <row r="39" spans="1:41">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B39">
+        <v>4159000000</v>
+      </c>
+      <c r="C39">
         <v>-247000000</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>2127000000</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>5946000000</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>6100000000</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4441000000</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>96000000</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>438000000</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>1878000000</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>-394000000</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>135000000</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>-120000000</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>-7526000000</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>-8279000000</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>-12796000000</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>-14601000000</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>5329000000</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>-31378000000</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>-30438000000</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>-32936000000</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>-30743000000</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-14450000000</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>-13482000000</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>-10655000000</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>-9383000000</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>-3223000000</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>2936000000</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>9653000000</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>16815000000</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>44715000000</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>42427000000</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>34161000000</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>70444000000</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>51295000000</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>46252000000</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>44102000000</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>44825000000</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>36795000000</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>44127000000</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>44495000000</v>
       </c>
     </row>
-    <row r="40" spans="1:40">
-      <c r="A40" t="s">
-        <v>39</v>
+    <row r="40" spans="1:41">
+      <c r="A40" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B40">
+        <v>7479000000</v>
+      </c>
+      <c r="C40">
         <v>11513000000</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>12583000000</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>10013000000</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>7118000000</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>32633000000</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>34930000000</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>32834000000</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>31053000000</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>-7032000000</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>-7066000000</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>-5075000000</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>45183000000</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>15712000000</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>33004000000</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>32996000000</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>37093000000</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>50573000000</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>49966000000</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>55220000000</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>49948000000</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>57134000000</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>49703000000</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>44485000000</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>43352000000</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>48358000000</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>62588000000</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>75220000000</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>92063000000</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>90487000000</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>122069000000</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>130584000000</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>151491000000</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>145640000000</v>
       </c>
-      <c r="AI40">
+      <c r="AJ40">
         <v>157052000000</v>
       </c>
-      <c r="AJ40">
+      <c r="AK40">
         <v>164401000000</v>
       </c>
-      <c r="AK40">
+      <c r="AL40">
         <v>167019000000</v>
       </c>
-      <c r="AL40">
+      <c r="AM40">
         <v>176971000000</v>
       </c>
-      <c r="AM40">
+      <c r="AN40">
         <v>176010000000</v>
       </c>
-      <c r="AN40">
+      <c r="AO40">
         <v>179316000000</v>
       </c>
     </row>
-    <row r="41" spans="1:40">
-      <c r="A41" t="s">
-        <v>40</v>
+    <row r="41" spans="1:41">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B41">
+        <v>32350000000</v>
+      </c>
+      <c r="C41">
         <v>30406000000</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>32518000000</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>33634000000</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>35185000000</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>62888000000</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>63524000000</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>71358000000</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>74902000000</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>79011000000</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>81482000000</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>84510000000</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>90882000000</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>91747000000</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>104355000000</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>106176000000</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>101725000000</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>112266000000</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>114251000000</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>124505000000</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>132611000000</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>135684000000</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>133720000000</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>127998000000</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>135794000000</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>147257000000</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>154431000000</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>183269000000</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>194519000000</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>226506000000</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>253173000000</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>259631000000</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>257021000000</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>283095000000</v>
       </c>
-      <c r="AI41">
+      <c r="AJ41">
         <v>290376000000</v>
       </c>
-      <c r="AJ41">
+      <c r="AK41">
         <v>297113000000</v>
       </c>
-      <c r="AK41">
+      <c r="AL41">
         <v>299555000000</v>
       </c>
-      <c r="AL41">
+      <c r="AM41">
         <v>307368000000</v>
       </c>
-      <c r="AM41">
+      <c r="AN41">
         <v>308469000000</v>
       </c>
-      <c r="AN41">
+      <c r="AO41">
         <v>317426000000</v>
       </c>
     </row>
